--- a/legislator/property/output/normal/張慶忠_2012-04-19_財產申報表_tmp93201.xlsx
+++ b/legislator/property/output/normal/張慶忠_2012-04-19_財產申報表_tmp93201.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="359">
   <si>
     <t>土地坐落</t>
   </si>
@@ -883,6 +883,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>中和紡織</t>
   </si>
   <si>
@@ -941,6 +950,9 @@
   </si>
   <si>
     <t>基鴻建設股份有限公司</t>
+  </si>
+  <si>
+    <t>2012-04-19</t>
   </si>
   <si>
     <t>財產種類</t>
@@ -5737,13 +5749,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>281</v>
       </c>
@@ -5762,13 +5774,22 @@
       <c r="G1" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>225</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>166</v>
@@ -5785,13 +5806,22 @@
       <c r="G2" s="2">
         <v>4880</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>226</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>163</v>
@@ -5808,13 +5838,22 @@
       <c r="G3" s="2">
         <v>5302900</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>227</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>165</v>
@@ -5831,13 +5870,22 @@
       <c r="G4" s="2">
         <v>186400</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>228</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>165</v>
@@ -5854,13 +5902,22 @@
       <c r="G5" s="2">
         <v>3024260</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>229</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>165</v>
@@ -5877,13 +5934,22 @@
       <c r="G6" s="2">
         <v>1121890</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>230</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>165</v>
@@ -5900,13 +5966,22 @@
       <c r="G7" s="2">
         <v>135490</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>231</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>165</v>
@@ -5923,13 +5998,22 @@
       <c r="G8" s="2">
         <v>869330</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>232</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>165</v>
@@ -5946,13 +6030,22 @@
       <c r="G9" s="2">
         <v>373040</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>233</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>165</v>
@@ -5969,13 +6062,22 @@
       <c r="G10" s="2">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>234</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>165</v>
@@ -5992,13 +6094,22 @@
       <c r="G11" s="2">
         <v>135750</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>235</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>165</v>
@@ -6015,13 +6126,22 @@
       <c r="G12" s="2">
         <v>222640</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>236</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>165</v>
@@ -6038,13 +6158,22 @@
       <c r="G13" s="2">
         <v>42600</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>237</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>165</v>
@@ -6061,13 +6190,22 @@
       <c r="G14" s="2">
         <v>93500000</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>238</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>165</v>
@@ -6084,13 +6222,22 @@
       <c r="G15" s="2">
         <v>252000</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>239</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>165</v>
@@ -6107,13 +6254,22 @@
       <c r="G16" s="2">
         <v>300000</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>240</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>163</v>
@@ -6130,13 +6286,22 @@
       <c r="G17" s="2">
         <v>55000000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>241</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>165</v>
@@ -6153,13 +6318,22 @@
       <c r="G18" s="2">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>242</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>163</v>
@@ -6176,13 +6350,22 @@
       <c r="G19" s="2">
         <v>18000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>243</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>163</v>
@@ -6199,13 +6382,22 @@
       <c r="G20" s="2">
         <v>1780</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>244</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>165</v>
@@ -6222,13 +6414,22 @@
       <c r="G21" s="2">
         <v>29000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>245</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>163</v>
@@ -6245,13 +6446,22 @@
       <c r="G22" s="2">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>247</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>163</v>
@@ -6267,6 +6477,15 @@
       </c>
       <c r="G23" s="2">
         <v>10780000</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1347</v>
       </c>
     </row>
   </sheetData>
@@ -6284,16 +6503,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6301,7 +6520,7 @@
         <v>266</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -6318,7 +6537,7 @@
         <v>267</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -6335,7 +6554,7 @@
         <v>268</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -6352,7 +6571,7 @@
         <v>269</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -6369,7 +6588,7 @@
         <v>270</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -6386,7 +6605,7 @@
         <v>271</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -6403,7 +6622,7 @@
         <v>272</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -6420,7 +6639,7 @@
         <v>273</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -6437,7 +6656,7 @@
         <v>274</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -6454,7 +6673,7 @@
         <v>275</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -6471,7 +6690,7 @@
         <v>276</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -6488,7 +6707,7 @@
         <v>277</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -6505,7 +6724,7 @@
         <v>278</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
@@ -6522,7 +6741,7 @@
         <v>279</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
@@ -6539,7 +6758,7 @@
         <v>280</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -6556,7 +6775,7 @@
         <v>281</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -6573,7 +6792,7 @@
         <v>282</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -6590,7 +6809,7 @@
         <v>283</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -6617,16 +6836,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6634,10 +6853,10 @@
         <v>288</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>163</v>
@@ -6649,10 +6868,10 @@
         <v>289</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>163</v>
@@ -6664,10 +6883,10 @@
         <v>290</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>163</v>
@@ -6679,10 +6898,10 @@
         <v>291</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>163</v>
@@ -6694,10 +6913,10 @@
         <v>292</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>163</v>
@@ -6709,16 +6928,16 @@
         <v>293</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6726,10 +6945,10 @@
         <v>294</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>163</v>
@@ -6751,22 +6970,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -6777,19 +6996,19 @@
         <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6800,19 +7019,19 @@
         <v>165</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E3" s="2">
         <v>17500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6823,19 +7042,19 @@
         <v>165</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E4" s="2">
         <v>2000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6846,19 +7065,19 @@
         <v>163</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E5" s="2">
         <v>6000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張慶忠_2012-04-19_財產申報表_tmp93201.xlsx
+++ b/legislator/property/output/normal/張慶忠_2012-04-19_財產申報表_tmp93201.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="361">
   <si>
     <t>土地坐落</t>
   </si>
@@ -883,6 +883,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -907,7 +910,7 @@
     <t>寶華銀行</t>
   </si>
   <si>
-    <t>潤泰創新國際股份有限公 司</t>
+    <t>潤泰創新國際股份有限公司</t>
   </si>
   <si>
     <t>開發金</t>
@@ -950,6 +953,9 @@
   </si>
   <si>
     <t>基鴻建設股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-19</t>
@@ -5749,13 +5755,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>281</v>
       </c>
@@ -5783,13 +5789,16 @@
       <c r="J1" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>225</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>166</v>
@@ -5807,21 +5816,24 @@
         <v>4880</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J2" s="2">
+        <v>312</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>226</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>163</v>
@@ -5839,21 +5851,24 @@
         <v>5302900</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J3" s="2">
+        <v>312</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>227</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>165</v>
@@ -5871,21 +5886,24 @@
         <v>186400</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J4" s="2">
+        <v>312</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>228</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>165</v>
@@ -5903,21 +5921,24 @@
         <v>3024260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J5" s="2">
+        <v>312</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K5" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>229</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>165</v>
@@ -5935,21 +5956,24 @@
         <v>1121890</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J6" s="2">
+        <v>312</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K6" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>230</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>165</v>
@@ -5967,21 +5991,24 @@
         <v>135490</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J7" s="2">
+        <v>312</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>231</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>165</v>
@@ -5999,21 +6026,24 @@
         <v>869330</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J8" s="2">
+        <v>312</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K8" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>232</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>165</v>
@@ -6031,21 +6061,24 @@
         <v>373040</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J9" s="2">
+        <v>312</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K9" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>233</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>165</v>
@@ -6063,21 +6096,24 @@
         <v>1000000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J10" s="2">
+        <v>312</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K10" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>234</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>165</v>
@@ -6095,21 +6131,24 @@
         <v>135750</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J11" s="2">
+        <v>312</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K11" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>235</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>165</v>
@@ -6127,21 +6166,24 @@
         <v>222640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J12" s="2">
+        <v>312</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K12" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>236</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>165</v>
@@ -6159,21 +6201,24 @@
         <v>42600</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J13" s="2">
+        <v>312</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>237</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>165</v>
@@ -6191,21 +6236,24 @@
         <v>93500000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J14" s="2">
+        <v>312</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K14" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>238</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>165</v>
@@ -6223,21 +6271,24 @@
         <v>252000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J15" s="2">
+        <v>312</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>239</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>165</v>
@@ -6255,21 +6306,24 @@
         <v>300000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J16" s="2">
+        <v>312</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>240</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>163</v>
@@ -6287,21 +6341,24 @@
         <v>55000000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J17" s="2">
+        <v>312</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>241</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>165</v>
@@ -6319,21 +6376,24 @@
         <v>1500000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J18" s="2">
+        <v>312</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>242</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>163</v>
@@ -6351,21 +6411,24 @@
         <v>18000000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J19" s="2">
+        <v>312</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>243</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>163</v>
@@ -6383,21 +6446,24 @@
         <v>1780</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J20" s="2">
+        <v>312</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>244</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>165</v>
@@ -6415,21 +6481,24 @@
         <v>29000000</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J21" s="2">
+        <v>312</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>245</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>163</v>
@@ -6447,21 +6516,24 @@
         <v>7000000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J22" s="2">
+        <v>312</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K22" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>247</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>163</v>
@@ -6479,12 +6551,15 @@
         <v>10780000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J23" s="2">
+        <v>312</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K23" s="2">
         <v>1347</v>
       </c>
     </row>
@@ -6503,16 +6578,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6520,7 +6595,7 @@
         <v>266</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -6537,7 +6612,7 @@
         <v>267</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -6554,7 +6629,7 @@
         <v>268</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -6571,7 +6646,7 @@
         <v>269</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -6588,7 +6663,7 @@
         <v>270</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -6605,7 +6680,7 @@
         <v>271</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -6622,7 +6697,7 @@
         <v>272</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -6639,7 +6714,7 @@
         <v>273</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -6656,7 +6731,7 @@
         <v>274</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -6673,7 +6748,7 @@
         <v>275</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -6690,7 +6765,7 @@
         <v>276</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -6707,7 +6782,7 @@
         <v>277</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -6724,7 +6799,7 @@
         <v>278</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
@@ -6741,7 +6816,7 @@
         <v>279</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
@@ -6758,7 +6833,7 @@
         <v>280</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -6775,7 +6850,7 @@
         <v>281</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -6792,7 +6867,7 @@
         <v>282</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -6809,7 +6884,7 @@
         <v>283</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -6836,16 +6911,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6853,10 +6928,10 @@
         <v>288</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>163</v>
@@ -6868,10 +6943,10 @@
         <v>289</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>163</v>
@@ -6883,10 +6958,10 @@
         <v>290</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>163</v>
@@ -6898,10 +6973,10 @@
         <v>291</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>163</v>
@@ -6913,10 +6988,10 @@
         <v>292</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>163</v>
@@ -6928,16 +7003,16 @@
         <v>293</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6945,10 +7020,10 @@
         <v>294</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>163</v>
@@ -6970,22 +7045,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -6996,19 +7071,19 @@
         <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7019,19 +7094,19 @@
         <v>165</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E3" s="2">
         <v>17500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7042,19 +7117,19 @@
         <v>165</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E4" s="2">
         <v>2000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7065,19 +7140,19 @@
         <v>163</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E5" s="2">
         <v>6000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張慶忠_2012-04-19_財產申報表_tmp93201.xlsx
+++ b/legislator/property/output/normal/張慶忠_2012-04-19_財產申報表_tmp93201.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="366">
   <si>
     <t>土地坐落</t>
   </si>
@@ -886,6 +886,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -895,6 +898,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>中和紡織</t>
   </si>
   <si>
@@ -958,7 +967,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-19</t>
+  </si>
+  <si>
+    <t>tmp93201</t>
   </si>
   <si>
     <t>財產種類</t>
@@ -5755,13 +5770,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>281</v>
       </c>
@@ -5792,13 +5807,22 @@
       <c r="K1" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>225</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>166</v>
@@ -5816,24 +5840,33 @@
         <v>4880</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K2" s="2">
+        <v>316</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L2" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N2" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>226</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>163</v>
@@ -5851,24 +5884,33 @@
         <v>5302900</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K3" s="2">
+        <v>316</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N3" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>227</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>165</v>
@@ -5886,24 +5928,33 @@
         <v>186400</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K4" s="2">
+        <v>316</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L4" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N4" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>228</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>165</v>
@@ -5921,24 +5972,33 @@
         <v>3024260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K5" s="2">
+        <v>316</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L5" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N5" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>229</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>165</v>
@@ -5956,24 +6016,33 @@
         <v>1121890</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K6" s="2">
+        <v>316</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L6" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N6" s="2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>230</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>165</v>
@@ -5991,24 +6060,33 @@
         <v>135490</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K7" s="2">
+        <v>316</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L7" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N7" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>231</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>165</v>
@@ -6026,24 +6104,33 @@
         <v>869330</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K8" s="2">
+        <v>316</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L8" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N8" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>232</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>165</v>
@@ -6061,24 +6148,33 @@
         <v>373040</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K9" s="2">
+        <v>316</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L9" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N9" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>233</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>165</v>
@@ -6096,24 +6192,33 @@
         <v>1000000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K10" s="2">
+        <v>316</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N10" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>234</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>165</v>
@@ -6131,24 +6236,33 @@
         <v>135750</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K11" s="2">
+        <v>316</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L11" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N11" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>235</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>165</v>
@@ -6166,24 +6280,33 @@
         <v>222640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K12" s="2">
+        <v>316</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L12" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N12" s="2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>236</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>165</v>
@@ -6201,24 +6324,33 @@
         <v>42600</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K13" s="2">
+        <v>316</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L13" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N13" s="2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>237</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>165</v>
@@ -6236,24 +6368,33 @@
         <v>93500000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K14" s="2">
+        <v>316</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L14" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N14" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>238</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>165</v>
@@ -6271,24 +6412,33 @@
         <v>252000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K15" s="2">
+        <v>316</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="M15" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N15" s="2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>239</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>165</v>
@@ -6306,24 +6456,33 @@
         <v>300000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K16" s="2">
+        <v>316</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N16" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>240</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>163</v>
@@ -6341,24 +6500,33 @@
         <v>55000000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K17" s="2">
+        <v>316</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N17" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>241</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>165</v>
@@ -6376,24 +6544,33 @@
         <v>1500000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K18" s="2">
+        <v>316</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N18" s="2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>242</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>163</v>
@@ -6411,24 +6588,33 @@
         <v>18000000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K19" s="2">
+        <v>316</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N19" s="2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>243</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>163</v>
@@ -6446,24 +6632,33 @@
         <v>1780</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K20" s="2">
+        <v>316</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="M20" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N20" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>244</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>165</v>
@@ -6481,24 +6676,33 @@
         <v>29000000</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K21" s="2">
+        <v>316</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="M21" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N21" s="2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>245</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>163</v>
@@ -6516,24 +6720,33 @@
         <v>7000000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K22" s="2">
+        <v>316</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L22" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="M22" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N22" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>247</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>163</v>
@@ -6551,16 +6764,25 @@
         <v>10780000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K23" s="2">
+        <v>316</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L23" s="2">
         <v>1347</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N23" s="2">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -6578,16 +6800,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6595,7 +6817,7 @@
         <v>266</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -6612,7 +6834,7 @@
         <v>267</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -6629,7 +6851,7 @@
         <v>268</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -6646,7 +6868,7 @@
         <v>269</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -6663,7 +6885,7 @@
         <v>270</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -6680,7 +6902,7 @@
         <v>271</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -6697,7 +6919,7 @@
         <v>272</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -6714,7 +6936,7 @@
         <v>273</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -6731,7 +6953,7 @@
         <v>274</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -6748,7 +6970,7 @@
         <v>275</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -6765,7 +6987,7 @@
         <v>276</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -6782,7 +7004,7 @@
         <v>277</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -6799,7 +7021,7 @@
         <v>278</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
@@ -6816,7 +7038,7 @@
         <v>279</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
@@ -6833,7 +7055,7 @@
         <v>280</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -6850,7 +7072,7 @@
         <v>281</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -6867,7 +7089,7 @@
         <v>282</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -6884,7 +7106,7 @@
         <v>283</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -6911,16 +7133,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6928,10 +7150,10 @@
         <v>288</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>163</v>
@@ -6943,10 +7165,10 @@
         <v>289</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>163</v>
@@ -6958,10 +7180,10 @@
         <v>290</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>163</v>
@@ -6973,10 +7195,10 @@
         <v>291</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>163</v>
@@ -6988,10 +7210,10 @@
         <v>292</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>163</v>
@@ -7003,16 +7225,16 @@
         <v>293</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7020,10 +7242,10 @@
         <v>294</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>163</v>
@@ -7045,22 +7267,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7071,19 +7293,19 @@
         <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7094,19 +7316,19 @@
         <v>165</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E3" s="2">
         <v>17500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7117,19 +7339,19 @@
         <v>165</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E4" s="2">
         <v>2000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7140,19 +7362,19 @@
         <v>163</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E5" s="2">
         <v>6000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張慶忠_2012-04-19_財產申報表_tmp93201.xlsx
+++ b/legislator/property/output/normal/張慶忠_2012-04-19_財產申報表_tmp93201.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="339">
   <si>
     <t>name</t>
   </si>
@@ -794,6 +794,9 @@
   </si>
   <si>
     <t>新建</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>彰化商業銀行</t>
@@ -8268,7 +8271,7 @@
         <v>239</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>245</v>
@@ -8321,7 +8324,7 @@
         <v>9309000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>245</v>
@@ -8374,7 +8377,7 @@
         <v>8378700</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>245</v>
@@ -8427,7 +8430,7 @@
         <v>239</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>245</v>
@@ -8469,13 +8472,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>166</v>
@@ -8490,13 +8493,13 @@
         <v>178</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>166</v>
@@ -8511,13 +8514,13 @@
         <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>166</v>
@@ -8532,13 +8535,13 @@
         <v>181</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>166</v>
@@ -8553,13 +8556,13 @@
         <v>182</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>166</v>
@@ -8574,13 +8577,13 @@
         <v>183</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>166</v>
@@ -8595,13 +8598,13 @@
         <v>184</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>166</v>
@@ -8616,13 +8619,13 @@
         <v>185</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>166</v>
@@ -8637,13 +8640,13 @@
         <v>186</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>166</v>
@@ -8658,13 +8661,13 @@
         <v>187</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>166</v>
@@ -8679,13 +8682,13 @@
         <v>188</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>166</v>
@@ -8700,13 +8703,13 @@
         <v>189</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>166</v>
@@ -8721,13 +8724,13 @@
         <v>190</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>168</v>
@@ -8742,13 +8745,13 @@
         <v>191</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>168</v>
@@ -8765,13 +8768,13 @@
         <v>192</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>168</v>
@@ -8786,13 +8789,13 @@
         <v>193</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>168</v>
@@ -8807,13 +8810,13 @@
         <v>194</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>168</v>
@@ -8828,13 +8831,13 @@
         <v>195</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>168</v>
@@ -8849,13 +8852,13 @@
         <v>196</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>168</v>
@@ -8870,13 +8873,13 @@
         <v>197</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>168</v>
@@ -8891,13 +8894,13 @@
         <v>198</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>168</v>
@@ -8912,13 +8915,13 @@
         <v>199</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>168</v>
@@ -8933,13 +8936,13 @@
         <v>200</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>168</v>
@@ -8954,13 +8957,13 @@
         <v>201</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>168</v>
@@ -8975,13 +8978,13 @@
         <v>202</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>168</v>
@@ -8996,13 +8999,13 @@
         <v>203</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>168</v>
@@ -9017,13 +9020,13 @@
         <v>204</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>168</v>
@@ -9038,13 +9041,13 @@
         <v>205</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>168</v>
@@ -9059,13 +9062,13 @@
         <v>206</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>168</v>
@@ -9080,13 +9083,13 @@
         <v>207</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>168</v>
@@ -9101,13 +9104,13 @@
         <v>208</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>168</v>
@@ -9124,13 +9127,13 @@
         <v>209</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>168</v>
@@ -9145,13 +9148,13 @@
         <v>211</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>168</v>
@@ -9166,13 +9169,13 @@
         <v>212</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>168</v>
@@ -9187,13 +9190,13 @@
         <v>213</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>168</v>
@@ -9208,13 +9211,13 @@
         <v>214</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>168</v>
@@ -9229,13 +9232,13 @@
         <v>215</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>168</v>
@@ -9250,13 +9253,13 @@
         <v>216</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>166</v>
@@ -9289,13 +9292,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -9327,7 +9330,7 @@
         <v>223</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>169</v>
@@ -9339,13 +9342,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G2" s="2">
         <v>4880</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>245</v>
@@ -9371,7 +9374,7 @@
         <v>224</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>166</v>
@@ -9383,13 +9386,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G3" s="2">
         <v>5302900</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>245</v>
@@ -9415,7 +9418,7 @@
         <v>225</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>168</v>
@@ -9427,13 +9430,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G4" s="2">
         <v>186400</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>245</v>
@@ -9459,7 +9462,7 @@
         <v>226</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>168</v>
@@ -9471,13 +9474,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G5" s="2">
         <v>3024260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>245</v>
@@ -9503,7 +9506,7 @@
         <v>227</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>168</v>
@@ -9515,13 +9518,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G6" s="2">
         <v>1121890</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>245</v>
@@ -9547,7 +9550,7 @@
         <v>228</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>168</v>
@@ -9559,13 +9562,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G7" s="2">
         <v>135490</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>245</v>
@@ -9591,7 +9594,7 @@
         <v>229</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>168</v>
@@ -9603,13 +9606,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G8" s="2">
         <v>869330</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>245</v>
@@ -9635,7 +9638,7 @@
         <v>230</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>168</v>
@@ -9647,13 +9650,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G9" s="2">
         <v>373040</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>245</v>
@@ -9679,7 +9682,7 @@
         <v>231</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>168</v>
@@ -9691,13 +9694,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G10" s="2">
         <v>1000000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>245</v>
@@ -9723,7 +9726,7 @@
         <v>232</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>168</v>
@@ -9735,13 +9738,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G11" s="2">
         <v>135750</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>245</v>
@@ -9767,7 +9770,7 @@
         <v>233</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>168</v>
@@ -9779,13 +9782,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G12" s="2">
         <v>222640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>245</v>
@@ -9811,7 +9814,7 @@
         <v>234</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>168</v>
@@ -9823,13 +9826,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G13" s="2">
         <v>42600</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>245</v>
@@ -9855,7 +9858,7 @@
         <v>235</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>168</v>
@@ -9867,13 +9870,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G14" s="2">
         <v>93500000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>245</v>
@@ -9899,7 +9902,7 @@
         <v>236</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>168</v>
@@ -9911,13 +9914,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G15" s="2">
         <v>252000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>245</v>
@@ -9943,7 +9946,7 @@
         <v>237</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>168</v>
@@ -9955,13 +9958,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G16" s="2">
         <v>300000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>245</v>
@@ -9987,7 +9990,7 @@
         <v>238</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>166</v>
@@ -9999,13 +10002,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G17" s="2">
         <v>55000000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>245</v>
@@ -10031,7 +10034,7 @@
         <v>239</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>168</v>
@@ -10043,13 +10046,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G18" s="2">
         <v>1500000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>245</v>
@@ -10075,7 +10078,7 @@
         <v>240</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>166</v>
@@ -10087,13 +10090,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G19" s="2">
         <v>18000000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>245</v>
@@ -10119,7 +10122,7 @@
         <v>241</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>166</v>
@@ -10131,13 +10134,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G20" s="2">
         <v>1780</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>245</v>
@@ -10163,7 +10166,7 @@
         <v>242</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>168</v>
@@ -10175,13 +10178,13 @@
         <v>100000</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G21" s="2">
         <v>29000000</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>245</v>
@@ -10207,7 +10210,7 @@
         <v>243</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>166</v>
@@ -10219,13 +10222,13 @@
         <v>100000</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G22" s="2">
         <v>7000000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>245</v>
@@ -10251,7 +10254,7 @@
         <v>245</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>166</v>
@@ -10263,13 +10266,13 @@
         <v>10000</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G23" s="2">
         <v>10780000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>245</v>
@@ -10305,7 +10308,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
@@ -10322,7 +10325,7 @@
         <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -10339,7 +10342,7 @@
         <v>265</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -10356,7 +10359,7 @@
         <v>266</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -10373,7 +10376,7 @@
         <v>267</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -10390,7 +10393,7 @@
         <v>268</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -10407,7 +10410,7 @@
         <v>269</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -10424,7 +10427,7 @@
         <v>270</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -10441,7 +10444,7 @@
         <v>271</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -10458,7 +10461,7 @@
         <v>272</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -10475,7 +10478,7 @@
         <v>273</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -10492,7 +10495,7 @@
         <v>274</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -10509,7 +10512,7 @@
         <v>275</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -10526,7 +10529,7 @@
         <v>276</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
@@ -10543,7 +10546,7 @@
         <v>277</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
@@ -10560,7 +10563,7 @@
         <v>278</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -10577,7 +10580,7 @@
         <v>279</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -10594,7 +10597,7 @@
         <v>280</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -10611,7 +10614,7 @@
         <v>281</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -10638,10 +10641,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>166</v>
@@ -10653,10 +10656,10 @@
         <v>286</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>166</v>
@@ -10668,10 +10671,10 @@
         <v>287</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>166</v>
@@ -10683,10 +10686,10 @@
         <v>288</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>166</v>
@@ -10698,10 +10701,10 @@
         <v>289</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>166</v>
@@ -10713,10 +10716,10 @@
         <v>290</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>166</v>
@@ -10728,16 +10731,16 @@
         <v>291</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10745,10 +10748,10 @@
         <v>292</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>166</v>
@@ -10773,19 +10776,19 @@
         <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E1" s="1">
         <v>15000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -10796,19 +10799,19 @@
         <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10819,19 +10822,19 @@
         <v>168</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E3" s="2">
         <v>17500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10842,19 +10845,19 @@
         <v>168</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E4" s="2">
         <v>2000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10865,19 +10868,19 @@
         <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E5" s="2">
         <v>6000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張慶忠_2012-04-19_財產申報表_tmp93201.xlsx
+++ b/legislator/property/output/normal/張慶忠_2012-04-19_財產申報表_tmp93201.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="342">
   <si>
     <t>name</t>
   </si>
@@ -799,76 +799,85 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>彰化商業銀行</t>
   </si>
   <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>聯邦商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>臺北縣中和地區農會</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行</t>
+  </si>
+  <si>
+    <t>台灣中小企業銀行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行</t>
+  </si>
+  <si>
+    <t>臺灣上地銀行</t>
+  </si>
+  <si>
+    <t>安泰商業銀行</t>
+  </si>
+  <si>
+    <t>板信商業銀行福和分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>&gt;舌期存款</t>
+  </si>
+  <si>
+    <t>定期儲蓄存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>聯邦商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>臺北縣中和地區農會</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行</t>
-  </si>
-  <si>
-    <t>台灣中小企業銀行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行</t>
-  </si>
-  <si>
-    <t>臺灣上地銀行</t>
-  </si>
-  <si>
-    <t>安泰商業銀行</t>
-  </si>
-  <si>
-    <t>板信商業銀行福和分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>&gt;舌期存款</t>
-  </si>
-  <si>
-    <t>定期儲蓄存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>中和紡織</t>
@@ -8464,13 +8473,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>259</v>
       </c>
@@ -8481,794 +8490,1548 @@
         <v>261</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>178</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M2" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M3" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>181</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M4" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>182</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M5" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>183</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>1517</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M6" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>184</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>907362</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M7" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>185</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M8" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>186</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>13936</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M9" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>187</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>106</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M10" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>188</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M11" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>189</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M12" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>190</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>3379</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M13" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>191</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>168</v>
       </c>
       <c r="F14" s="2">
-        <v>15</v>
-      </c>
-      <c r="G14" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M14" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>192</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>188914</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M15" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>193</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>78771</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M16" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>194</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>19955.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M17" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>195</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M18" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>196</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>332034</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M19" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>197</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>701916</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M20" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>198</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>33961</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M21" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>199</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
+      <c r="F22" s="2">
         <v>5987</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M22" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>200</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
+      <c r="F23" s="2">
         <v>41416</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M23" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>201</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
+      <c r="F24" s="2">
         <v>389976</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M24" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>202</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
+      <c r="F25" s="2">
         <v>4315</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M25" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>203</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
+      <c r="F26" s="2">
         <v>274</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M26" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>204</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
+      <c r="F27" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M27" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>205</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2">
+      <c r="F28" s="2">
         <v>506849</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>206</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2">
+      <c r="F29" s="2">
         <v>11217335</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M29" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>207</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2">
+      <c r="F30" s="2">
         <v>63282</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="G30" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M30" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>208</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>168</v>
       </c>
       <c r="F31" s="2">
-        <v>2.22</v>
-      </c>
-      <c r="G31" s="2">
         <v>66.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M31" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>209</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2">
+      <c r="F32" s="2">
         <v>6646</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="G32" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M32" s="2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>211</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2">
+      <c r="F33" s="2">
         <v>117</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="G33" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M33" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>212</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2">
+      <c r="F34" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M34" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>213</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2">
+      <c r="F35" s="2">
         <v>10065682</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="G35" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M35" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>214</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2">
+      <c r="F36" s="2">
         <v>53970000</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="G36" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M36" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>215</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2">
+      <c r="F37" s="2">
         <v>30303440</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="G37" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M37" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>216</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>166</v>
       </c>
       <c r="F38" s="2">
-        <v>20</v>
-      </c>
-      <c r="G38" s="2">
         <v>600</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M38" s="2">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -9292,13 +10055,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -9330,7 +10093,7 @@
         <v>223</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>169</v>
@@ -9342,13 +10105,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G2" s="2">
         <v>4880</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>245</v>
@@ -9374,7 +10137,7 @@
         <v>224</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>166</v>
@@ -9386,13 +10149,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G3" s="2">
         <v>5302900</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>245</v>
@@ -9418,7 +10181,7 @@
         <v>225</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>168</v>
@@ -9430,13 +10193,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G4" s="2">
         <v>186400</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>245</v>
@@ -9462,7 +10225,7 @@
         <v>226</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>168</v>
@@ -9474,13 +10237,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G5" s="2">
         <v>3024260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>245</v>
@@ -9506,7 +10269,7 @@
         <v>227</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>168</v>
@@ -9518,13 +10281,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G6" s="2">
         <v>1121890</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>245</v>
@@ -9550,7 +10313,7 @@
         <v>228</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>168</v>
@@ -9562,13 +10325,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G7" s="2">
         <v>135490</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>245</v>
@@ -9594,7 +10357,7 @@
         <v>229</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>168</v>
@@ -9606,13 +10369,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G8" s="2">
         <v>869330</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>245</v>
@@ -9638,7 +10401,7 @@
         <v>230</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>168</v>
@@ -9650,13 +10413,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G9" s="2">
         <v>373040</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>245</v>
@@ -9682,7 +10445,7 @@
         <v>231</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>168</v>
@@ -9694,13 +10457,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G10" s="2">
         <v>1000000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>245</v>
@@ -9726,7 +10489,7 @@
         <v>232</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>168</v>
@@ -9738,13 +10501,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G11" s="2">
         <v>135750</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>245</v>
@@ -9770,7 +10533,7 @@
         <v>233</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>168</v>
@@ -9782,13 +10545,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G12" s="2">
         <v>222640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>245</v>
@@ -9814,7 +10577,7 @@
         <v>234</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>168</v>
@@ -9826,13 +10589,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G13" s="2">
         <v>42600</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>245</v>
@@ -9858,7 +10621,7 @@
         <v>235</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>168</v>
@@ -9870,13 +10633,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G14" s="2">
         <v>93500000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>245</v>
@@ -9902,7 +10665,7 @@
         <v>236</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>168</v>
@@ -9914,13 +10677,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G15" s="2">
         <v>252000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>245</v>
@@ -9946,7 +10709,7 @@
         <v>237</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>168</v>
@@ -9958,13 +10721,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G16" s="2">
         <v>300000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>245</v>
@@ -9990,7 +10753,7 @@
         <v>238</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>166</v>
@@ -10002,13 +10765,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G17" s="2">
         <v>55000000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>245</v>
@@ -10034,7 +10797,7 @@
         <v>239</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>168</v>
@@ -10046,13 +10809,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G18" s="2">
         <v>1500000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>245</v>
@@ -10078,7 +10841,7 @@
         <v>240</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>166</v>
@@ -10090,13 +10853,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G19" s="2">
         <v>18000000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>245</v>
@@ -10122,7 +10885,7 @@
         <v>241</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>166</v>
@@ -10134,13 +10897,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G20" s="2">
         <v>1780</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>245</v>
@@ -10166,7 +10929,7 @@
         <v>242</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>168</v>
@@ -10178,13 +10941,13 @@
         <v>100000</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G21" s="2">
         <v>29000000</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>245</v>
@@ -10210,7 +10973,7 @@
         <v>243</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>166</v>
@@ -10222,13 +10985,13 @@
         <v>100000</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G22" s="2">
         <v>7000000</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>245</v>
@@ -10254,7 +11017,7 @@
         <v>245</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>166</v>
@@ -10266,13 +11029,13 @@
         <v>10000</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G23" s="2">
         <v>10780000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>245</v>
@@ -10308,7 +11071,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
@@ -10325,7 +11088,7 @@
         <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -10342,7 +11105,7 @@
         <v>265</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -10359,7 +11122,7 @@
         <v>266</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -10376,7 +11139,7 @@
         <v>267</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -10393,7 +11156,7 @@
         <v>268</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -10410,7 +11173,7 @@
         <v>269</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -10427,7 +11190,7 @@
         <v>270</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -10444,7 +11207,7 @@
         <v>271</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -10461,7 +11224,7 @@
         <v>272</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -10478,7 +11241,7 @@
         <v>273</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -10495,7 +11258,7 @@
         <v>274</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -10512,7 +11275,7 @@
         <v>275</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -10529,7 +11292,7 @@
         <v>276</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
@@ -10546,7 +11309,7 @@
         <v>277</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
@@ -10563,7 +11326,7 @@
         <v>278</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -10580,7 +11343,7 @@
         <v>279</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -10597,7 +11360,7 @@
         <v>280</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -10614,7 +11377,7 @@
         <v>281</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -10641,10 +11404,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>166</v>
@@ -10656,10 +11419,10 @@
         <v>286</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>166</v>
@@ -10671,10 +11434,10 @@
         <v>287</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>166</v>
@@ -10686,10 +11449,10 @@
         <v>288</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>166</v>
@@ -10701,10 +11464,10 @@
         <v>289</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>166</v>
@@ -10716,10 +11479,10 @@
         <v>290</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>166</v>
@@ -10731,16 +11494,16 @@
         <v>291</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10748,10 +11511,10 @@
         <v>292</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>166</v>
@@ -10776,19 +11539,19 @@
         <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E1" s="1">
         <v>15000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -10799,19 +11562,19 @@
         <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10822,19 +11585,19 @@
         <v>168</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="E3" s="2">
         <v>17500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10845,19 +11608,19 @@
         <v>168</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E4" s="2">
         <v>2000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10868,19 +11631,19 @@
         <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E5" s="2">
         <v>6000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張慶忠_2012-04-19_財產申報表_tmp93201.xlsx
+++ b/legislator/property/output/normal/張慶忠_2012-04-19_財產申報表_tmp93201.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="343">
   <si>
     <t>name</t>
   </si>
@@ -989,6 +989,9 @@
   </si>
   <si>
     <t>福州溫泉高爾夫球證</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>國泰人壽</t>
@@ -11063,27 +11066,48 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="1">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>264</v>
       </c>
@@ -11099,8 +11123,29 @@
       <c r="E2" s="2">
         <v>700000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L2" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>265</v>
       </c>
@@ -11116,8 +11161,29 @@
       <c r="E3" s="2">
         <v>400000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L3" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>266</v>
       </c>
@@ -11133,8 +11199,29 @@
       <c r="E4" s="2">
         <v>800000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L4" s="2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>267</v>
       </c>
@@ -11150,8 +11237,29 @@
       <c r="E5" s="2">
         <v>900000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L5" s="2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>268</v>
       </c>
@@ -11167,8 +11275,29 @@
       <c r="E6" s="2">
         <v>500000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L6" s="2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>269</v>
       </c>
@@ -11184,8 +11313,29 @@
       <c r="E7" s="2">
         <v>800000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L7" s="2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>270</v>
       </c>
@@ -11201,8 +11351,29 @@
       <c r="E8" s="2">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L8" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>271</v>
       </c>
@@ -11218,8 +11389,29 @@
       <c r="E9" s="2">
         <v>400000</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L9" s="2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>272</v>
       </c>
@@ -11235,8 +11427,29 @@
       <c r="E10" s="2">
         <v>600000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L10" s="2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>273</v>
       </c>
@@ -11252,8 +11465,29 @@
       <c r="E11" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L11" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>274</v>
       </c>
@@ -11269,8 +11503,29 @@
       <c r="E12" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L12" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>275</v>
       </c>
@@ -11286,8 +11541,29 @@
       <c r="E13" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L13" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>276</v>
       </c>
@@ -11303,8 +11579,29 @@
       <c r="E14" s="2">
         <v>300000</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L14" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>277</v>
       </c>
@@ -11320,8 +11617,29 @@
       <c r="E15" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L15" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>278</v>
       </c>
@@ -11337,8 +11655,29 @@
       <c r="E16" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L16" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>279</v>
       </c>
@@ -11354,8 +11693,29 @@
       <c r="E17" s="2">
         <v>400000</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L17" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>280</v>
       </c>
@@ -11371,8 +11731,29 @@
       <c r="E18" s="2">
         <v>660000</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L18" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>281</v>
       </c>
@@ -11387,6 +11768,27 @@
       </c>
       <c r="E19" s="2">
         <v>500000</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L19" s="2">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -11404,10 +11806,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>166</v>
@@ -11419,10 +11821,10 @@
         <v>286</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>166</v>
@@ -11434,10 +11836,10 @@
         <v>287</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>166</v>
@@ -11449,10 +11851,10 @@
         <v>288</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>166</v>
@@ -11464,10 +11866,10 @@
         <v>289</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>166</v>
@@ -11479,10 +11881,10 @@
         <v>290</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>166</v>
@@ -11494,16 +11896,16 @@
         <v>291</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -11511,10 +11913,10 @@
         <v>292</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>166</v>
@@ -11539,19 +11941,19 @@
         <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E1" s="1">
         <v>15000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -11562,19 +11964,19 @@
         <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -11585,19 +11987,19 @@
         <v>168</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E3" s="2">
         <v>17500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -11608,19 +12010,19 @@
         <v>168</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E4" s="2">
         <v>2000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -11631,19 +12033,19 @@
         <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E5" s="2">
         <v>6000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張慶忠_2012-04-19_財產申報表_tmp93201.xlsx
+++ b/legislator/property/output/normal/張慶忠_2012-04-19_財產申報表_tmp93201.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="346">
   <si>
     <t>name</t>
   </si>
@@ -991,18 +991,21 @@
     <t>福州溫泉高爾夫球證</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>新光人壽</t>
+  </si>
+  <si>
     <t>利率變動型年金保險（甲型）</t>
   </si>
   <si>
-    <t>新光人壽</t>
-  </si>
-  <si>
     <t>金歡喜110養老保險</t>
   </si>
   <si>
@@ -1021,34 +1024,40 @@
     <t>金美利美元養老保險</t>
   </si>
   <si>
-    <t>已變更為減額繳清保險。</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
   <si>
     <t>資信建設有限公司</t>
   </si>
   <si>
+    <t>漢禧建設有限公司</t>
+  </si>
+  <si>
+    <t>弘基消防安全設備有限公司</t>
+  </si>
+  <si>
     <t>新北市安樂路217巷20弄8號</t>
   </si>
   <si>
+    <t>新北市景平路7821號5樓</t>
+  </si>
+  <si>
     <t>72年09月02日</t>
   </si>
   <si>
+    <t>86年03月18H</t>
+  </si>
+  <si>
+    <t>92年03月28日</t>
+  </si>
+  <si>
     <t>股金</t>
   </si>
   <si>
-    <t>漢禧建設有限公司</t>
-  </si>
-  <si>
-    <t>弘基消防安全設備有限公司</t>
-  </si>
-  <si>
-    <t>新北市景平路7821號5樓</t>
-  </si>
-  <si>
-    <t>86年03月18H</t>
-  </si>
-  <si>
-    <t>92年03月28日</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -11798,100 +11807,220 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>324</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>286</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1347</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K2" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>287</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1347</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K3" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>288</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1347</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K4" s="2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>289</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1347</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K5" s="2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>290</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1347</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K6" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>291</v>
       </c>
@@ -11899,29 +12028,67 @@
         <v>326</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>334</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1347</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" s="2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>292</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1347</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K8" s="2">
+        <v>292</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11930,33 +12097,54 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E1" s="1">
-        <v>15000000</v>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>336</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>308</v>
       </c>
@@ -11964,22 +12152,43 @@
         <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>344</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="N2" s="2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>309</v>
       </c>
@@ -11987,22 +12196,43 @@
         <v>168</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E3" s="2">
         <v>17500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>344</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="N3" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>310</v>
       </c>
@@ -12010,7 +12240,7 @@
         <v>168</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>340</v>
@@ -12019,13 +12249,34 @@
         <v>2000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>344</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="N4" s="2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>311</v>
       </c>
@@ -12033,19 +12284,40 @@
         <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E5" s="2">
         <v>6000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>337</v>
+        <v>344</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="N5" s="2">
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張慶忠_2012-04-19_財產申報表_tmp93201.xlsx
+++ b/legislator/property/output/normal/張慶忠_2012-04-19_財產申報表_tmp93201.xlsx
@@ -13,14 +13,15 @@
     <sheet name="股票" sheetId="4" r:id="rId4"/>
     <sheet name="具有相當價值之財產" sheetId="5" r:id="rId5"/>
     <sheet name="保險" sheetId="6" r:id="rId6"/>
-    <sheet name="事業投資" sheetId="7" r:id="rId7"/>
+    <sheet name="債權" sheetId="7" r:id="rId7"/>
+    <sheet name="事業投資" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="359">
   <si>
     <t>name</t>
   </si>
@@ -1025,6 +1026,45 @@
   </si>
   <si>
     <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>未兌現支票</t>
+  </si>
+  <si>
+    <t>漢寶開發建設(股)公司新北市中和區安樂路</t>
+  </si>
+  <si>
+    <t>資信建設有限公司新北市中和區安樂路</t>
+  </si>
+  <si>
+    <t>漢龍營造股份有限公司新北市中和區安樂路</t>
+  </si>
+  <si>
+    <t>芳林建設有限公司新北市中和區安樂路</t>
+  </si>
+  <si>
+    <t>98年10月23日</t>
+  </si>
+  <si>
+    <t>98年12月06日</t>
+  </si>
+  <si>
+    <t>98年11月23日</t>
+  </si>
+  <si>
+    <t>100年08月23日</t>
+  </si>
+  <si>
+    <t>借款</t>
+  </si>
+  <si>
+    <t>claim</t>
   </si>
   <si>
     <t>address</t>
@@ -12105,13 +12145,243 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>297</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2" s="2">
+        <v>449020000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="N2" s="2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>298</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E3" s="2">
+        <v>268020000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="N3" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>299</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" s="2">
+        <v>146800000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="N4" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>300</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="N5" s="2">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>324</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -12152,22 +12422,22 @@
         <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>245</v>
@@ -12196,22 +12466,22 @@
         <v>168</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="E3" s="2">
         <v>17500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>245</v>
@@ -12240,22 +12510,22 @@
         <v>168</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="E4" s="2">
         <v>2000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>245</v>
@@ -12284,22 +12554,22 @@
         <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="E5" s="2">
         <v>6000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>245</v>
